--- a/public/template_stok.xlsx
+++ b/public/template_stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD69D3F-5977-4128-8459-F66DD820C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C22B4-72BF-4A2C-94C4-8C1B38DA2873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>barang_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>stok_jumlah</t>
@@ -360,42 +357,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>44</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
         <v>5</v>
       </c>
     </row>
